--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_77.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_77.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,688 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(23.02, 32.58)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(46.06, 55.66)]</t>
+          <t>[('0:01:06.920000', '0:01:08.180000'), ('0:01:05.200000', '0:01:07.500000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:01.340000', '0:00:08.860000'), ('0:00:54.180000', '0:01:01.460000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.440395, 7.142059)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(41.08, 43.26)]</t>
+          <t>[('0:00:14.520000', '0:00:59.640000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+          <t>[('0:00:13.520000', '0:00:51.460000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(7.6, 13.86)]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[('0:01:40.740000', '0:02:01.400000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:30.160000', '0:00:44.080000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D5" t="inlineStr">
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1384615384615385</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58)]</t>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>[('0:01:19.420000', '0:01:26.020000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[('0:00:32.440000', '0:00:34.800000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:41.320000', '0:00:46.640000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5428571428571429</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(61.3, 70.46)]</t>
+          <t>[['D', 'G/5', 'D', 'G/5']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:20.432000', '0:00:24.332000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_139</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1325187969924812</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(17.38, 31.86)]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.5, 5.58)]</t>
+          <t>[('0:00:51.853310', '0:00:57.054580')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:06.126439', '0:00:09.980952')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(101.44, 112.4)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(93.0, 103.28)]</t>
+          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_14</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_268</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1213235294117647</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D', 'G', 'A', 'A/7'], ['A', 'A', 'C#:min/5', 'F#:min'], ['A/b6', 'A/5', 'A', 'C#:min/5']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[['D', 'G', 'A', 'A'], ['A', 'A', 'C#:min', 'F#:min'], ['A', 'A', 'A', 'C#:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[('0:01:21.443752', '0:01:26.183398'), ('0:01:11.018490', '0:01:19.713866'), ('0:01:27.427993', '0:01:31.614092')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:18.686825', '0:00:23.760385'), ('0:00:08.655804', '0:00:18.686825'), ('0:00:46.365011', '0:00:56.488911')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5608974358974359</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj', 'A:maj', 'D:maj', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14), (36.6, 39.0)]</t>
+          <t>[['B', 'E', 'B', 'F#', 'B', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(12.54, 25.94), (69.24, 75.88)]</t>
+          <t>[('0:01:47.673000', '0:02:04.556000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:40.546893', '0:00:56.394512')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1979813664596273</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C#:min', 'C#:min/b7', 'A', 'B', 'E'], ['C#:min', 'A', 'B', 'E', 'E/7']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:min', 'E:min/b7', 'C', 'D', 'G'], ['E:min/b7', 'C', 'D', 'G', 'G']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(13.148866, 23.028956), (6.658888, 13.148866)]</t>
+          <t>[['F:min/C', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(107.586031, 113.30975), (108.723809, 114.482358)]</t>
+          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
+          <t>[('0:00:43.680000', '0:00:45.800000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(68.82, 84.54)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(19.14, 24.78)]</t>
+          <t>[('0:01:05.440000', '0:01:06.820000'), ('0:01:03.600000', '0:01:06.040000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:01.640000', '0:00:09.940000'), ('0:00:59.220000', '0:01:06.880000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1120923913043478</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:maj']]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(55.002834, 59.124376)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(45.96, 48.46)]</t>
+          <t>[('0:00:00.780000', '0:01:38.820000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+          <t>[('0:00:00.280000', '0:01:42.520000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(17.38, 31.86)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(2.36, 7.56)]</t>
+          <t>[('0:01:13.260000', '0:01:39.080000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:53.120000', '0:01:14.300000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(3.78, 7.38)]</t>
+          <t>[['C#:(3,5)', 'F:maj/A', 'A#:maj', 'F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[('0:00:55.820000', '0:01:01.680000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(1.92, 8.32)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(39.04, 46.1)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:00.620000', '0:01:06.360000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
